--- a/biology/Médecine/Giuseppe_Albini_(médecin)/Giuseppe_Albini_(médecin).xlsx
+++ b/biology/Médecine/Giuseppe_Albini_(médecin)/Giuseppe_Albini_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giuseppe_Albini_(m%C3%A9decin)</t>
+          <t>Giuseppe_Albini_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Albini, est un médecin physiologiste italien né à Milan le 27 septembre 1827 et mort à Turin le 18 janvier 1911.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giuseppe_Albini_(m%C3%A9decin)</t>
+          <t>Giuseppe_Albini_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1845, il commence ses études de médecine à Pavie, où il suit les cours d'anatomie de Bartolomeo Panizza.
 Expulsé de Pavie pour avoir pris part au Printemps des peuples de 1848, il participe aux cinq journées de Milan et à la bataille de Novare.
@@ -520,7 +534,7 @@
 En octobre 1857, il devient professeur de physiologie à l'Université Jagellon de Cracovie.
 En 1859, la Lombardie est libérée des Autrichiens à la suite de l'armistice de Villafranca : Giuseppe Albini, malgré son importante position au sein de l'université de Cracovie, démissionne et retourne en Italie avec une nomination comme professeur d'histoire naturelle à l'école secondaire à Casale Monferrato.
 En janvier 1860, il est nommé professeur de physiologie à Parme et en octobre de la même année, sur proposition de De Meis (it), il est nommé à l'université de Naples, où en février 1861 il devient directeur de l'Institut de physiologie, poste qu'il occupe jusqu'en 1905.
-Le 27 octobre 1877, il est élu membre honoraire étranger de l'Académie royale de médecine de Belgique[1].
+Le 27 octobre 1877, il est élu membre honoraire étranger de l'Académie royale de médecine de Belgique.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giuseppe_Albini_(m%C3%A9decin)</t>
+          <t>Giuseppe_Albini_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giuseppe Albini s'intéressait particulièrement à l'optique et à la chimie et a publié des articles sur les sécrétions glandulaires, l'embryologie, la physiologie des nerfs[2]. Il a décrit de petits nodules fibreux sur les marges des valves mitrale et tricuspide du cœur, résidus de tissus fœtaux, qui portent désormais son nom : les nodules d'Albini[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giuseppe Albini s'intéressait particulièrement à l'optique et à la chimie et a publié des articles sur les sécrétions glandulaires, l'embryologie, la physiologie des nerfs. Il a décrit de petits nodules fibreux sur les marges des valves mitrale et tricuspide du cœur, résidus de tissus fœtaux, qui portent désormais son nom : les nodules d'Albini.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giuseppe_Albini_(m%C3%A9decin)</t>
+          <t>Giuseppe_Albini_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,16 +596,86 @@
           <t>Œuvres (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ricerche sul veleno della salamandra maculata, 1854
 Lezioni di embriologia, 1867
 Trattato delle funzioni riproduttive e d'embriologia, 1868
-Sull'istruzione superiore e sull'ordinamento degli studj di medicina e di chirurgia, 3e  éd., 1882
-Traductions
-G. Hermann Meyer, Trattato di anatomia fisiologica umana, 1867
-Liste d'œuvres
-Angelo De Gubernatis, « Albini (Joseph) », dans Dictionnaire international des écrivains du jour, vol. 1, 1891</t>
+Sull'istruzione superiore e sull'ordinamento degli studj di medicina e di chirurgia, 3e  éd., 1882</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giuseppe_Albini_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giuseppe_Albini_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>G. Hermann Meyer, Trattato di anatomia fisiologica umana, 1867</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giuseppe_Albini_(médecin)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giuseppe_Albini_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'œuvres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Angelo De Gubernatis, « Albini (Joseph) », dans Dictionnaire international des écrivains du jour, vol. 1, 1891</t>
         </is>
       </c>
     </row>
